--- a/drugstorerx_api.xlsx
+++ b/drugstorerx_api.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>API</t>
   </si>
@@ -54,9 +54,6 @@
     <t>supID</t>
   </si>
   <si>
-    <t>/rpt_minStock</t>
-  </si>
-  <si>
     <t>http://localhost/api/rpt_minStock/00001</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>/rpt_invSupplier</t>
   </si>
   <si>
-    <t>/rpt_invStock</t>
-  </si>
-  <si>
     <t>http://localhost/api/rpt_invSupplier</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>http://localhost/api/datacollector?name=xyzal</t>
   </si>
   <si>
-    <t>ค้นหาสินค้า</t>
-  </si>
-  <si>
     <t>productID</t>
   </si>
   <si>
@@ -124,13 +115,82 @@
   </si>
   <si>
     <t>http://localhost/api/rpt_profit?fromDatexxxx=&amp;toDate=xxx</t>
+  </si>
+  <si>
+    <t>/rpt_profitByUser</t>
+  </si>
+  <si>
+    <t>http://localhost/api/rpt_profitByUser?fromDatexxxx=&amp;toDate=xxx</t>
+  </si>
+  <si>
+    <t>รายงานกำไร-แยกตาม user</t>
+  </si>
+  <si>
+    <t>ค้นหาสินค้า ตามชื่อ</t>
+  </si>
+  <si>
+    <t>ค้นหาสินค้า ตามbarcode</t>
+  </si>
+  <si>
+    <t>/yeepua</t>
+  </si>
+  <si>
+    <t>http://localhost/api/yeepua?name=xyzal</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>quoID</t>
+  </si>
+  <si>
+    <t>/rpt_minStock/:supID</t>
+  </si>
+  <si>
+    <t>/rpt_invStock/:supID</t>
+  </si>
+  <si>
+    <t>/datacollector/:productID</t>
+  </si>
+  <si>
+    <t>/datacollector/:barcode/barcode</t>
+  </si>
+  <si>
+    <t>http://localhost/api/datacollector/888151558888/barcode</t>
+  </si>
+  <si>
+    <t>/yeepua/:barcode/barcode</t>
+  </si>
+  <si>
+    <t>http://localhost/api/yeepua/888151558888/barcode</t>
+  </si>
+  <si>
+    <t>/yeepua/:quoID</t>
+  </si>
+  <si>
+    <t>http://localhost/api/yeapua/2017102001</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>http://localhost/api/yeapua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +202,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,9 +244,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -468,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -517,68 +593,68 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -586,78 +662,181 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E10" r:id="rId3"/>
-    <hyperlink ref="E11" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E14" r:id="rId7"/>
-    <hyperlink ref="E15" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E21" r:id="rId13"/>
+    <hyperlink ref="E23" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
